--- a/excel/finished/烧结/指标运行情况.xlsx
+++ b/excel/finished/烧结/指标运行情况.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
     <sheet name="_5jiaofen_month_all" sheetId="3" r:id="rId2"/>
     <sheet name="_6jiaofen_month_all" sheetId="2" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>指标运行情况</t>
   </si>
@@ -94,131 +94,21 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>DateTime1</t>
-  </si>
-  <si>
-    <t>2019年05月23日</t>
-  </si>
-  <si>
-    <t>DateTime2</t>
-  </si>
-  <si>
-    <t>05月23日</t>
-  </si>
-  <si>
-    <t>DateTime3</t>
-  </si>
-  <si>
-    <t>2019/05/23</t>
-  </si>
-  <si>
-    <t>DateTime4</t>
-  </si>
-  <si>
-    <t>05/23</t>
-  </si>
-  <si>
-    <t>DateTime5</t>
-  </si>
-  <si>
-    <t>05月</t>
-  </si>
-  <si>
-    <t>DateTime6</t>
-  </si>
-  <si>
-    <t>2019年05月</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>日报表</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>D:\template\烧结\指标运行情况.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>BuildUnit</t>
-  </si>
-  <si>
-    <t>AutoBuildDelay</t>
-  </si>
-  <si>
-    <t>AutoBuildDelayUnit</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2019-05-23</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2019-05-23 17:15:21</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>2019-05-23 17:15:22</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>D:\excel\cn_zh\5烧结\日报表\指标运行情况_2019-05-23_18.xlsx</t>
-  </si>
-  <si>
-    <t>DateTime7</t>
-  </si>
-  <si>
-    <t>DateTime8</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -273,20 +163,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF1F4A7E"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -300,20 +176,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FF1F4A7E"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -321,13 +198,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F4A7E"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -346,9 +216,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FF1F4A7E"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -360,28 +269,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F4A7E"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -401,7 +291,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7E62A1"/>
+        <fgColor rgb="FFB7DDE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2A1C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5DFEC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +321,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBEEF3"/>
+        <fgColor rgb="FFC0514D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6E3BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B9B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +375,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0514D"/>
+        <fgColor rgb="FFF79544"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBC0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E62A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ABA58"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,49 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2A1C6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD99694"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6E3BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79544"/>
+        <fgColor rgb="FF94CDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFDCE5F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9ABA58"/>
+        <fgColor rgb="FFDBEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,79 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF1DD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DDE8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCBC0D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9CCE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94CDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5DFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B9B8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE5F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,13 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF5181BD"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF5181BD"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,11 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF5181BD"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,21 +653,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,17 +675,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5181BD"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF5181BD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,157 +700,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF5181BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +953,7 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1073,8 +963,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1456,7 +1350,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1483,8 +1377,8 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="8" t="str">
-        <f>IF(_metadata!B2="","",_xlfn.CONCAT("(",_metadata!B2,")"))</f>
-        <v>(2019年05月23日)</v>
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -1609,28 +1503,28 @@
       <c r="E6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="28" t="str">
+      <c r="F6" s="32" t="str">
         <f>IF(_5jiaofen_month_all!Q2="","",_5jiaofen_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="G6" s="28" t="str">
+      <c r="G6" s="32" t="str">
         <f ca="1">IFERROR(AVERAGEA(_5jiaofen_month_all!D2:_5jiaofen_month_all!D1000),"")</f>
         <v/>
       </c>
       <c r="H6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="28" t="str">
+      <c r="I6" s="32" t="str">
         <f>IF(_6jiaofen_month_all!Q2="","",_6jiaofen_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="J6" s="28" t="str">
+      <c r="J6" s="32" t="str">
         <f ca="1">IFERROR(AVERAGE(_6jiaofen_month_all!D2:_6jiaofen_month_all!D1000),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -1647,55 +1541,55 @@
       <c r="E7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="28" t="str">
+      <c r="F7" s="32" t="str">
         <f>IF(_5jiaofen_month_all!X2="","",_5jiaofen_month_all!X2)</f>
         <v/>
       </c>
-      <c r="G7" s="28" t="str">
+      <c r="G7" s="32" t="str">
         <f ca="1">IFERROR(AVERAGE(_5jiaofen_month_all!K2:_5jiaofen_month_all!K1000),"")</f>
         <v/>
       </c>
       <c r="H7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="28" t="str">
+      <c r="I7" s="32" t="str">
         <f>IF(_6jiaofen_month_all!X2="","",_6jiaofen_month_all!X2)</f>
         <v/>
       </c>
-      <c r="J7" s="28" t="str">
+      <c r="J7" s="32" t="str">
         <f ca="1">IFERROR(AVERAGE(_6jiaofen_month_all!K2:_6jiaofen_month_all!K1000),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="40.5" customHeight="1" spans="1:10">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="6:6">
-      <c r="F11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="6:6">
-      <c r="F12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
     </row>
     <row r="16" ht="15.75" spans="1:4">
       <c r="A16" s="1"/>
@@ -1722,10 +1616,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:N445"/>
+  <dimension ref="A1:N445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q2" sqref="Q2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1756,25 +1650,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="14:14">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="N2" t="str">
         <f>IF(SUM(F2:J2)=0,"",SUM(F2:J2))</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="14:14">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="N3" t="str">
         <f t="shared" ref="N2:N65" si="0">IF(SUM(F3:J3)=0,"",SUM(F3:J3))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="14:14">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="14:14">
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4429,10 +4375,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:N466"/>
+  <dimension ref="A1:N466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Q2" sqref="Q2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4463,25 +4409,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="14:14">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="0">IF(SUM(F2:J2)=0,"",SUM(F2:J2))</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="14:14">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="N3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="14:14">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="14:14">
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7262,190 +7260,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1">
-        <v>43608.7189961921</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22">
-        <v>43586.0000031366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>43466.7189961921</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
